--- a/domain-to-ip-coverter/output.xlsx
+++ b/domain-to-ip-coverter/output.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20403"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\projects\web-security-tools\domain-to-ip-coverter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6DA16D-35E2-44A5-94A5-BCD098F499F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,58 +22,67 @@
     <t>ip</t>
   </si>
   <si>
+    <t>topsectorenergie.nl</t>
+  </si>
+  <si>
+    <t>atgb.nl</t>
+  </si>
+  <si>
+    <t>q-bankplants.eu</t>
+  </si>
+  <si>
+    <t>opwegmetwaterstof.nl</t>
+  </si>
+  <si>
+    <t>2todrive.nl</t>
+  </si>
+  <si>
+    <t>geosamen.nl</t>
+  </si>
+  <si>
+    <t>bronhouderportaal-bro.nl</t>
+  </si>
+  <si>
+    <t>commissiebbv.nl</t>
+  </si>
+  <si>
+    <t>contactpuntbouwproducten.nl</t>
+  </si>
+  <si>
+    <t>waterveiligheidsportaal.nl</t>
+  </si>
+  <si>
+    <t>bio-enerco.com</t>
+  </si>
+  <si>
+    <t>boswachtersblog.nl</t>
+  </si>
+  <si>
+    <t>buitenlevenvakanties.nl</t>
+  </si>
+  <si>
+    <t>groenalliantiemiddenholland.nl</t>
+  </si>
+  <si>
+    <t>hollands-hout.com</t>
+  </si>
+  <si>
+    <t>services.zorgcsp.nl</t>
+  </si>
+  <si>
     <t>scvalidator.logius.nl</t>
   </si>
   <si>
-    <t>q-bankplants.eu</t>
-  </si>
-  <si>
-    <t>2todrive.nl</t>
-  </si>
-  <si>
-    <t>atgb.nl</t>
-  </si>
-  <si>
-    <t>topsectorenergie.nl</t>
-  </si>
-  <si>
-    <t>commissiebbv.nl</t>
-  </si>
-  <si>
-    <t>contactpuntbouwproducten.nl</t>
-  </si>
-  <si>
-    <t>opwegmetwaterstof.nl</t>
-  </si>
-  <si>
-    <t>services.zorgcsp.nl</t>
-  </si>
-  <si>
-    <t>waterveiligheidsportaal.nl</t>
-  </si>
-  <si>
-    <t>bio-enerco.com</t>
-  </si>
-  <si>
-    <t>bronhouderportaal-bro.nl</t>
-  </si>
-  <si>
-    <t>boswachtersblog.nl</t>
-  </si>
-  <si>
-    <t>buitenlevenvakanties.nl</t>
-  </si>
-  <si>
-    <t>groenalliantiemiddenholland.nl</t>
-  </si>
-  <si>
-    <t>hollands-hout.com</t>
+    <t>logerenbijdeboswachter.nl</t>
   </si>
   <si>
     <t>ges2019.onimgzine.com/participants/login</t>
   </si>
   <si>
-    <t>logerenbijdeboswachter.nl</t>
+    <t>authenticatie.inspectieview.nl</t>
+  </si>
+  <si>
+    <t>projects.knmi.nl</t>
   </si>
   <si>
     <t>guaranteeforum.nl</t>
@@ -97,84 +100,84 @@
     <t>veiling.belastingdienst.nl</t>
   </si>
   <si>
+    <t>linnean.nl</t>
+  </si>
+  <si>
+    <t>broinfo.nl</t>
+  </si>
+  <si>
+    <t>kwaliteitsimpulsgroenalliantie.nl</t>
+  </si>
+  <si>
+    <t>corbey.nl</t>
+  </si>
+  <si>
+    <t>prachtplekken.nl</t>
+  </si>
+  <si>
+    <t>werkzaamheden.rijkswaterstaat.nl</t>
+  </si>
+  <si>
+    <t>locatievalkenburg.nl</t>
+  </si>
+  <si>
     <t>eerlijkoverjeid.nl</t>
   </si>
   <si>
-    <t>locatievalkenburg.nl</t>
-  </si>
-  <si>
-    <t>corbey.nl</t>
-  </si>
-  <si>
-    <t>werkzaamheden.rijkswaterstaat.nl</t>
-  </si>
-  <si>
     <t>onlineform.culture.gov.nl</t>
   </si>
   <si>
-    <t>geosamen.nl</t>
-  </si>
-  <si>
-    <t>prachtplekken.nl</t>
-  </si>
-  <si>
-    <t>kwaliteitsimpulsgroenalliantie.nl</t>
-  </si>
-  <si>
-    <t>broinfo.nl</t>
-  </si>
-  <si>
-    <t>projects.knmi.nl</t>
-  </si>
-  <si>
-    <t>authenticatie.inspectieview.nl</t>
-  </si>
-  <si>
-    <t>linnean.nl</t>
+    <t>178.22.56.28</t>
+  </si>
+  <si>
+    <t>185.94.230.102</t>
+  </si>
+  <si>
+    <t>20.224.198.29</t>
+  </si>
+  <si>
+    <t>185.138.80.36</t>
+  </si>
+  <si>
+    <t>185.146.216.234</t>
+  </si>
+  <si>
+    <t>172.67.151.142</t>
+  </si>
+  <si>
+    <t>147.181.15.157</t>
+  </si>
+  <si>
+    <t>147.181.6.247</t>
+  </si>
+  <si>
+    <t>212.114.106.170</t>
+  </si>
+  <si>
+    <t>90.145.157.252</t>
+  </si>
+  <si>
+    <t>5.22.248.122</t>
+  </si>
+  <si>
+    <t>62.221.194.165</t>
+  </si>
+  <si>
+    <t>95.170.68.133</t>
   </si>
   <si>
     <t>Error</t>
   </si>
   <si>
-    <t>20.224.198.29</t>
-  </si>
-  <si>
-    <t>185.146.216.234</t>
-  </si>
-  <si>
-    <t>185.94.230.102</t>
-  </si>
-  <si>
-    <t>178.22.56.28</t>
-  </si>
-  <si>
-    <t>147.181.6.247</t>
-  </si>
-  <si>
-    <t>212.114.106.170</t>
-  </si>
-  <si>
-    <t>185.138.80.36</t>
-  </si>
-  <si>
-    <t>90.145.157.252</t>
-  </si>
-  <si>
-    <t>5.22.248.122</t>
-  </si>
-  <si>
-    <t>147.181.15.157</t>
-  </si>
-  <si>
-    <t>62.221.194.165</t>
-  </si>
-  <si>
-    <t>95.170.68.133</t>
-  </si>
-  <si>
     <t>93.119.0.181</t>
   </si>
   <si>
+    <t>145.12.218.251</t>
+  </si>
+  <si>
+    <t>145.23.3.98</t>
+  </si>
+  <si>
     <t>83.96.238.226</t>
   </si>
   <si>
@@ -194,22 +197,13 @@
   </si>
   <si>
     <t>20.50.239.148</t>
-  </si>
-  <si>
-    <t>104.21.88.176</t>
-  </si>
-  <si>
-    <t>145.23.3.98</t>
-  </si>
-  <si>
-    <t>145.12.218.251</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,14 +266,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -326,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,27 +344,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,24 +378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -603,18 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -633,7 +579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -644,7 +590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -655,7 +601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -666,7 +612,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -677,7 +623,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -688,7 +634,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -699,7 +645,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,7 +656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -718,10 +664,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -729,10 +675,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -740,10 +686,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -751,10 +697,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -762,10 +708,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -773,10 +719,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -784,10 +730,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -795,10 +741,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -806,10 +752,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -817,10 +763,10 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -828,10 +774,10 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -842,7 +788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -853,7 +799,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -864,7 +810,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -875,7 +821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -883,10 +829,10 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -894,10 +840,10 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -905,10 +851,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -916,10 +862,10 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -927,10 +873,10 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -938,10 +884,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -949,10 +895,10 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -960,10 +906,10 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -971,10 +917,10 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -982,10 +928,10 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -993,10 +939,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1004,7 +950,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
